--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\Test Automation for DQE\pytest_homework_template\homework_template\Metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\Test Automation for DQE\HWs\pytest_framework\pytest_task\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539D5E0-C7D8-4822-AAD3-7819B63461D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E868823-AB44-4A0C-BA69-B7816853687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title2</t>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,6 +910,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
@@ -930,9 +933,6 @@
       <c r="F17">
         <v>60</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
@@ -1107,9 +1107,6 @@
       <c r="F26">
         <v>50</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
@@ -1129,6 +1126,9 @@
       </c>
       <c r="F27">
         <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\Test Automation for DQE\HWs\pytest_framework\pytest_task\metadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E868823-AB44-4A0C-BA69-B7816853687C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86E0859-59D9-4A4F-A0B7-6FE8944B9E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86E0859-59D9-4A4F-A0B7-6FE8944B9E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025038D9-F148-485C-876F-83000E12CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Title2</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025038D9-F148-485C-876F-83000E12CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48B993-D54A-4ADD-B79D-7427F2640E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title2</t>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B48B993-D54A-4ADD-B79D-7427F2640E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7631DF-E269-460C-93A7-1369FC14A321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Title3</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7631DF-E269-460C-93A7-1369FC14A321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016CB7CA-8362-4A74-9B3B-3FEAD24DBB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title3</t>
+    <t>Title4</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016CB7CA-8362-4A74-9B3B-3FEAD24DBB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1725E27-5138-46A7-B679-F09A56EFFEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title4</t>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1725E27-5138-46A7-B679-F09A56EFFEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A840B9-1F63-4A4E-A02C-681965D494E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Title2</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/autotests/metadata/Metadata.xlsx
+++ b/autotests/metadata/Metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siarhei_Zhamoidzik\0. Self Learning\DQE Mentoring Program\CICD for DQE\repo first_try\cicd-first-try\autotests\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A840B9-1F63-4A4E-A02C-681965D494E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B902C524-BF69-41A2-A684-1DA0BD35BA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>UnitMeasureCode</t>
   </si>
   <si>
-    <t>Title2</t>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
